--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H2">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J2">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.11448</v>
+        <v>0.06994966666666667</v>
       </c>
       <c r="N2">
-        <v>0.34344</v>
+        <v>0.209849</v>
       </c>
       <c r="O2">
-        <v>0.2266119975559899</v>
+        <v>0.08318537484337014</v>
       </c>
       <c r="P2">
-        <v>0.2266119975559899</v>
+        <v>0.08318537484337013</v>
       </c>
       <c r="Q2">
-        <v>0.9082638280799999</v>
+        <v>0.2363059691571111</v>
       </c>
       <c r="R2">
-        <v>8.17437445272</v>
+        <v>2.126753722414</v>
       </c>
       <c r="S2">
-        <v>0.08914893513409394</v>
+        <v>0.01645186425571793</v>
       </c>
       <c r="T2">
-        <v>0.08914893513409394</v>
+        <v>0.01645186425571793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H3">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I3">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J3">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.16633</v>
       </c>
       <c r="O3">
-        <v>0.1097495153549028</v>
+        <v>0.06593418790510203</v>
       </c>
       <c r="P3">
-        <v>0.1097495153549027</v>
+        <v>0.06593418790510201</v>
       </c>
       <c r="Q3">
-        <v>0.43987748231</v>
+        <v>0.1873002580422222</v>
       </c>
       <c r="R3">
-        <v>3.95889734079</v>
+        <v>1.68570232238</v>
       </c>
       <c r="S3">
-        <v>0.0431753505149483</v>
+        <v>0.01304003631970399</v>
       </c>
       <c r="T3">
-        <v>0.04317535051494829</v>
+        <v>0.01304003631970399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.933820999999999</v>
+        <v>3.378228666666666</v>
       </c>
       <c r="H4">
-        <v>23.801463</v>
+        <v>10.134686</v>
       </c>
       <c r="I4">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="J4">
-        <v>0.3933990084177585</v>
+        <v>0.1977735183221229</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3352573333333333</v>
+        <v>0.715496</v>
       </c>
       <c r="N4">
-        <v>1.005772</v>
+        <v>2.146488</v>
       </c>
       <c r="O4">
-        <v>0.6636384870891074</v>
+        <v>0.8508804372515278</v>
       </c>
       <c r="P4">
-        <v>0.6636384870891073</v>
+        <v>0.8508804372515278</v>
       </c>
       <c r="Q4">
-        <v>2.659871671603999</v>
+        <v>2.417109098085333</v>
       </c>
       <c r="R4">
-        <v>23.938845044436</v>
+        <v>21.753981882768</v>
       </c>
       <c r="S4">
-        <v>0.2610747227687163</v>
+        <v>0.168281617746701</v>
       </c>
       <c r="T4">
-        <v>0.2610747227687162</v>
+        <v>0.168281617746701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>34.745824</v>
       </c>
       <c r="I5">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J5">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.11448</v>
+        <v>0.06994966666666667</v>
       </c>
       <c r="N5">
-        <v>0.34344</v>
+        <v>0.209849</v>
       </c>
       <c r="O5">
-        <v>0.2266119975559899</v>
+        <v>0.08318537484337014</v>
       </c>
       <c r="P5">
-        <v>0.2266119975559899</v>
+        <v>0.08318537484337013</v>
       </c>
       <c r="Q5">
-        <v>1.32590064384</v>
+        <v>0.8101529356195556</v>
       </c>
       <c r="R5">
-        <v>11.93310579456</v>
+        <v>7.291376420576</v>
       </c>
       <c r="S5">
-        <v>0.1301412946740562</v>
+        <v>0.05640367939382297</v>
       </c>
       <c r="T5">
-        <v>0.1301412946740562</v>
+        <v>0.05640367939382297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.745824</v>
       </c>
       <c r="I6">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J6">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.16633</v>
       </c>
       <c r="O6">
-        <v>0.1097495153549028</v>
+        <v>0.06593418790510203</v>
       </c>
       <c r="P6">
-        <v>0.1097495153549027</v>
+        <v>0.06593418790510201</v>
       </c>
       <c r="Q6">
         <v>0.6421414339911111</v>
@@ -818,10 +818,10 @@
         <v>5.77927290592</v>
       </c>
       <c r="S6">
-        <v>0.06302818991129677</v>
+        <v>0.04470654610493533</v>
       </c>
       <c r="T6">
-        <v>0.06302818991129676</v>
+        <v>0.04470654610493532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>34.745824</v>
       </c>
       <c r="I7">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="J7">
-        <v>0.5742912823576415</v>
+        <v>0.6780480282745078</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3352573333333333</v>
+        <v>0.715496</v>
       </c>
       <c r="N7">
-        <v>1.005772</v>
+        <v>2.146488</v>
       </c>
       <c r="O7">
-        <v>0.6636384870891074</v>
+        <v>0.8508804372515278</v>
       </c>
       <c r="P7">
-        <v>0.6636384870891073</v>
+        <v>0.8508804372515278</v>
       </c>
       <c r="Q7">
-        <v>3.882930766236444</v>
+        <v>8.286832696234667</v>
       </c>
       <c r="R7">
-        <v>34.94637689612799</v>
+        <v>74.581494266112</v>
       </c>
       <c r="S7">
-        <v>0.3811217977722886</v>
+        <v>0.5769378027757496</v>
       </c>
       <c r="T7">
-        <v>0.3811217977722886</v>
+        <v>0.5769378027757496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.121129333333334</v>
+      </c>
+      <c r="H8">
+        <v>6.363388</v>
+      </c>
+      <c r="I8">
+        <v>0.1241784534033691</v>
+      </c>
+      <c r="J8">
+        <v>0.1241784534033691</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.6516016666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.954805</v>
-      </c>
-      <c r="I8">
-        <v>0.03230970922460004</v>
-      </c>
-      <c r="J8">
-        <v>0.03230970922460004</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.11448</v>
+        <v>0.06994966666666667</v>
       </c>
       <c r="N8">
-        <v>0.34344</v>
+        <v>0.209849</v>
       </c>
       <c r="O8">
-        <v>0.2266119975559899</v>
+        <v>0.08318537484337014</v>
       </c>
       <c r="P8">
-        <v>0.2266119975559899</v>
+        <v>0.08318537484337013</v>
       </c>
       <c r="Q8">
-        <v>0.07459535880000001</v>
+        <v>0.1483722898235556</v>
       </c>
       <c r="R8">
-        <v>0.6713582292000001</v>
+        <v>1.335350608412</v>
       </c>
       <c r="S8">
-        <v>0.007321767747839809</v>
+        <v>0.01032983119382924</v>
       </c>
       <c r="T8">
-        <v>0.007321767747839808</v>
+        <v>0.01032983119382923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H9">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I9">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J9">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.16633</v>
       </c>
       <c r="O9">
-        <v>0.1097495153549028</v>
+        <v>0.06593418790510203</v>
       </c>
       <c r="P9">
-        <v>0.1097495153549027</v>
+        <v>0.06593418790510201</v>
       </c>
       <c r="Q9">
-        <v>0.03612696840555556</v>
+        <v>0.1176024806711111</v>
       </c>
       <c r="R9">
-        <v>0.32514271565</v>
+        <v>1.05842232604</v>
       </c>
       <c r="S9">
-        <v>0.003545974928657685</v>
+        <v>0.008187605480462696</v>
       </c>
       <c r="T9">
-        <v>0.003545974928657685</v>
+        <v>0.008187605480462695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6516016666666667</v>
+        <v>2.121129333333334</v>
       </c>
       <c r="H10">
-        <v>1.954805</v>
+        <v>6.363388</v>
       </c>
       <c r="I10">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="J10">
-        <v>0.03230970922460004</v>
+        <v>0.1241784534033691</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3352573333333333</v>
+        <v>0.715496</v>
       </c>
       <c r="N10">
-        <v>1.005772</v>
+        <v>2.146488</v>
       </c>
       <c r="O10">
-        <v>0.6636384870891074</v>
+        <v>0.8508804372515278</v>
       </c>
       <c r="P10">
-        <v>0.6636384870891073</v>
+        <v>0.8508804372515278</v>
       </c>
       <c r="Q10">
-        <v>0.2184542371622222</v>
+        <v>1.517659553482667</v>
       </c>
       <c r="R10">
-        <v>1.96608813446</v>
+        <v>13.658935981344</v>
       </c>
       <c r="S10">
-        <v>0.02144196654810255</v>
+        <v>0.1056610167290772</v>
       </c>
       <c r="T10">
-        <v>0.02144196654810255</v>
+        <v>0.1056610167290772</v>
       </c>
     </row>
   </sheetData>
